--- a/info/Taxi_DataDic.xlsx
+++ b/info/Taxi_DataDic.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="car" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="test" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -57,12 +58,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -95,11 +96,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -173,6 +179,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -207,6 +214,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,75 +390,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -461,24 +469,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/info/Taxi_DataDic.xlsx
+++ b/info/Taxi_DataDic.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="car" sheetId="1" r:id="rId1"/>
-    <sheet name="test" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="carBanner" sheetId="2" r:id="rId2"/>
+    <sheet name="carModel" sheetId="3" r:id="rId3"/>
+    <sheet name="carColor" sheetId="5" r:id="rId4"/>
+    <sheet name="driverTaxi" sheetId="6" r:id="rId5"/>
+    <sheet name="mobile" sheetId="7" r:id="rId6"/>
+    <sheet name="mobileNetwork" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="95">
   <si>
     <t>carId</t>
   </si>
@@ -53,30 +56,308 @@
   </si>
   <si>
     <t>dateAdd</t>
+  </si>
+  <si>
+    <t>รหัสรถ</t>
+  </si>
+  <si>
+    <t>ทะเบียนรถ</t>
+  </si>
+  <si>
+    <t>รหัสยี่ห้อ</t>
+  </si>
+  <si>
+    <t>รหัสรุ่นรถ</t>
+  </si>
+  <si>
+    <t>ปีรถ</t>
+  </si>
+  <si>
+    <t>รหัสสีรถ</t>
+  </si>
+  <si>
+    <t>รหัสเชื้อเพลิง</t>
+  </si>
+  <si>
+    <t>รหัสชนิดแก๊ส</t>
+  </si>
+  <si>
+    <t>รูปรถ</t>
+  </si>
+  <si>
+    <t>รหัสประเภทรถ</t>
+  </si>
+  <si>
+    <t>รหัสสถานะรถ</t>
+  </si>
+  <si>
+    <t>วันที่เพิ่ม</t>
+  </si>
+  <si>
+    <t>Filed</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>1=ว่าง, 2=ไม่ว่าง, 3=จอด</t>
+  </si>
+  <si>
+    <t>รหัสอู่</t>
+  </si>
+  <si>
+    <t>garageId</t>
+  </si>
+  <si>
+    <t>Primary key</t>
+  </si>
+  <si>
+    <t>Foreign key</t>
+  </si>
+  <si>
+    <t>bannerId</t>
+  </si>
+  <si>
+    <t>bannerName</t>
+  </si>
+  <si>
+    <t>ชื่อยี่ห้อรถ</t>
+  </si>
+  <si>
+    <t>modelId</t>
+  </si>
+  <si>
+    <t>modelName</t>
+  </si>
+  <si>
+    <t>รหัสยี่ห้อรถ</t>
+  </si>
+  <si>
+    <t>ชื่อรุ่นรถ</t>
+  </si>
+  <si>
+    <t>colorId</t>
+  </si>
+  <si>
+    <t>colorName</t>
+  </si>
+  <si>
+    <t>สีรถ</t>
+  </si>
+  <si>
+    <t>driverId</t>
+  </si>
+  <si>
+    <t>idNumber</t>
+  </si>
+  <si>
+    <t>licenseNumber</t>
+  </si>
+  <si>
+    <t>driverAge</t>
+  </si>
+  <si>
+    <t>รหัสผู้ขับขี่</t>
+  </si>
+  <si>
+    <t>หมายเลขบัตรประชาชน</t>
+  </si>
+  <si>
+    <t>ใบขับขี่</t>
+  </si>
+  <si>
+    <t>อายุผู้ขับขี่</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>ชื่อผู้ขับขี่</t>
+  </si>
+  <si>
+    <t>นามสกุล</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>amphur</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>driverImage</t>
+  </si>
+  <si>
+    <t>mobilePhone</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>workMorningStart</t>
+  </si>
+  <si>
+    <t>workMorningEnd</t>
+  </si>
+  <si>
+    <t>workAfternoonStart</t>
+  </si>
+  <si>
+    <t>workAfternoonEnd</t>
+  </si>
+  <si>
+    <t>driverHistory</t>
+  </si>
+  <si>
+    <t>ที่อยู่</t>
+  </si>
+  <si>
+    <t>ตำบล</t>
+  </si>
+  <si>
+    <t>อำเภอ</t>
+  </si>
+  <si>
+    <t>จังหวัด</t>
+  </si>
+  <si>
+    <t>รหัสไปรษณีย์</t>
+  </si>
+  <si>
+    <t>รูปผู้ขับขี่</t>
+  </si>
+  <si>
+    <t>โทรศัพท์มือถือ</t>
+  </si>
+  <si>
+    <t>โทรศัพท์บ้าน</t>
+  </si>
+  <si>
+    <t>เวลาเข้างานช่วงเช้า</t>
+  </si>
+  <si>
+    <t>เวลาออกงานช่วงเช้า</t>
+  </si>
+  <si>
+    <t>เวลาเข้างานช่วงเย็น</t>
+  </si>
+  <si>
+    <t>เวลาออกงานช่วงเย็น</t>
+  </si>
+  <si>
+    <t>ประวัติผู้ขับขี่</t>
+  </si>
+  <si>
+    <t>mobileId</t>
+  </si>
+  <si>
+    <t>mobileNumber</t>
+  </si>
+  <si>
+    <t>mobileBanner</t>
+  </si>
+  <si>
+    <t>mobileModel</t>
+  </si>
+  <si>
+    <t>EmiMsi</t>
+  </si>
+  <si>
+    <t>mobileNetworkId</t>
+  </si>
+  <si>
+    <t>dateUpdate</t>
+  </si>
+  <si>
+    <t>วันทีแก้ไข</t>
+  </si>
+  <si>
+    <t>Emi/Msi</t>
+  </si>
+  <si>
+    <t>รุ่นโทรศัพท</t>
+  </si>
+  <si>
+    <t>ยี่ห้อโทรศัพท์</t>
+  </si>
+  <si>
+    <t>หมายเลขโทรศัพท์</t>
+  </si>
+  <si>
+    <t>mobileNetworName</t>
+  </si>
+  <si>
+    <t>รหัสเครือข่ายโทรศัพท์</t>
+  </si>
+  <si>
+    <t>ชื่อเครือข่ายโทรศพท์</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,14 +365,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -105,7 +408,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -179,7 +482,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -214,7 +516,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,118 +691,698 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/info/Taxi_DataDic.xlsx
+++ b/info/Taxi_DataDic.xlsx
@@ -4,23 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760" tabRatio="684" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="car" sheetId="1" r:id="rId1"/>
     <sheet name="carBanner" sheetId="2" r:id="rId2"/>
     <sheet name="carModel" sheetId="3" r:id="rId3"/>
     <sheet name="carColor" sheetId="5" r:id="rId4"/>
-    <sheet name="driverTaxi" sheetId="6" r:id="rId5"/>
-    <sheet name="mobile" sheetId="7" r:id="rId6"/>
-    <sheet name="mobileNetwork" sheetId="8" r:id="rId7"/>
+    <sheet name="carGas" sheetId="10" r:id="rId5"/>
+    <sheet name="carFuel" sheetId="11" r:id="rId6"/>
+    <sheet name="carStatus" sheetId="9" r:id="rId7"/>
+    <sheet name="driverTaxi" sheetId="6" r:id="rId8"/>
+    <sheet name="mobile" sheetId="7" r:id="rId9"/>
+    <sheet name="mobileNetwork" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="99">
   <si>
     <t>carId</t>
   </si>
@@ -37,15 +40,6 @@
     <t>carYear</t>
   </si>
   <si>
-    <t>carColor</t>
-  </si>
-  <si>
-    <t>carFuel</t>
-  </si>
-  <si>
-    <t>carGas</t>
-  </si>
-  <si>
     <t>carImage</t>
   </si>
   <si>
@@ -118,33 +112,15 @@
     <t>Foreign key</t>
   </si>
   <si>
-    <t>bannerId</t>
-  </si>
-  <si>
-    <t>bannerName</t>
-  </si>
-  <si>
     <t>ชื่อยี่ห้อรถ</t>
   </si>
   <si>
-    <t>modelId</t>
-  </si>
-  <si>
-    <t>modelName</t>
-  </si>
-  <si>
     <t>รหัสยี่ห้อรถ</t>
   </si>
   <si>
     <t>ชื่อรุ่นรถ</t>
   </si>
   <si>
-    <t>colorId</t>
-  </si>
-  <si>
-    <t>colorName</t>
-  </si>
-  <si>
     <t>สีรถ</t>
   </si>
   <si>
@@ -187,15 +163,6 @@
     <t>address</t>
   </si>
   <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>amphur</t>
-  </si>
-  <si>
-    <t>province</t>
-  </si>
-  <si>
     <t>zipcode</t>
   </si>
   <si>
@@ -305,6 +272,54 @@
   </si>
   <si>
     <t>ชื่อเครือข่ายโทรศพท์</t>
+  </si>
+  <si>
+    <t>carStatusName</t>
+  </si>
+  <si>
+    <t>ชื่อรหัสสถานะรถ</t>
+  </si>
+  <si>
+    <t>districtId</t>
+  </si>
+  <si>
+    <t>amphurId</t>
+  </si>
+  <si>
+    <t>provinceId</t>
+  </si>
+  <si>
+    <t>carGasId</t>
+  </si>
+  <si>
+    <t>carFuelId</t>
+  </si>
+  <si>
+    <t>carColorId</t>
+  </si>
+  <si>
+    <t>carBannerName</t>
+  </si>
+  <si>
+    <t>carModelName</t>
+  </si>
+  <si>
+    <t>carColorName</t>
+  </si>
+  <si>
+    <t>carGasName</t>
+  </si>
+  <si>
+    <t>รหัสแก๊ส</t>
+  </si>
+  <si>
+    <t>ชื่อแก๊ส</t>
+  </si>
+  <si>
+    <t>carFuelName</t>
+  </si>
+  <si>
+    <t>ชื่อเชื้อเพลิง</t>
   </si>
 </sst>
 </file>
@@ -695,7 +710,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -707,13 +722,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -721,21 +736,21 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -743,23 +758,29 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -767,72 +788,133 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>9</v>
+      <c r="A12" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -841,7 +923,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -853,40 +935,40 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -900,7 +982,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -912,51 +994,51 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4"/>
     </row>
@@ -982,40 +1064,40 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -1026,10 +1108,178 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1041,180 +1291,189 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>55</v>
+      <c r="A10" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>56</v>
+      <c r="A11" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>57</v>
+      <c r="A12" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1222,12 +1481,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1239,148 +1498,93 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>85</v>
+      <c r="A4" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/info/Taxi_DataDic.xlsx
+++ b/info/Taxi_DataDic.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760" tabRatio="684" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760" tabRatio="684" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="car" sheetId="1" r:id="rId1"/>
@@ -13,17 +13,26 @@
     <sheet name="carColor" sheetId="5" r:id="rId4"/>
     <sheet name="carGas" sheetId="10" r:id="rId5"/>
     <sheet name="carFuel" sheetId="11" r:id="rId6"/>
-    <sheet name="carStatus" sheetId="9" r:id="rId7"/>
-    <sheet name="driverTaxi" sheetId="6" r:id="rId8"/>
-    <sheet name="mobile" sheetId="7" r:id="rId9"/>
-    <sheet name="mobileNetwork" sheetId="8" r:id="rId10"/>
+    <sheet name="carType" sheetId="20" r:id="rId7"/>
+    <sheet name="carStatus" sheetId="9" r:id="rId8"/>
+    <sheet name="driverTaxi" sheetId="6" r:id="rId9"/>
+    <sheet name="mobile" sheetId="7" r:id="rId10"/>
+    <sheet name="mobileNetwork" sheetId="8" r:id="rId11"/>
+    <sheet name="customer" sheetId="12" r:id="rId12"/>
+    <sheet name="garageList" sheetId="13" r:id="rId13"/>
+    <sheet name="majorAdmin" sheetId="14" r:id="rId14"/>
+    <sheet name="majorType" sheetId="15" r:id="rId15"/>
+    <sheet name="menuList" sheetId="16" r:id="rId16"/>
+    <sheet name="minorAdmin" sheetId="17" r:id="rId17"/>
+    <sheet name="minorType" sheetId="18" r:id="rId18"/>
+    <sheet name="timeSchedule" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="179">
   <si>
     <t>carId</t>
   </si>
@@ -127,9 +136,6 @@
     <t>driverId</t>
   </si>
   <si>
-    <t>idNumber</t>
-  </si>
-  <si>
     <t>licenseNumber</t>
   </si>
   <si>
@@ -175,18 +181,6 @@
     <t>telephone</t>
   </si>
   <si>
-    <t>workMorningStart</t>
-  </si>
-  <si>
-    <t>workMorningEnd</t>
-  </si>
-  <si>
-    <t>workAfternoonStart</t>
-  </si>
-  <si>
-    <t>workAfternoonEnd</t>
-  </si>
-  <si>
     <t>driverHistory</t>
   </si>
   <si>
@@ -214,18 +208,6 @@
     <t>โทรศัพท์บ้าน</t>
   </si>
   <si>
-    <t>เวลาเข้างานช่วงเช้า</t>
-  </si>
-  <si>
-    <t>เวลาออกงานช่วงเช้า</t>
-  </si>
-  <si>
-    <t>เวลาเข้างานช่วงเย็น</t>
-  </si>
-  <si>
-    <t>เวลาออกงานช่วงเย็น</t>
-  </si>
-  <si>
     <t>ประวัติผู้ขับขี่</t>
   </si>
   <si>
@@ -320,24 +302,291 @@
   </si>
   <si>
     <t>ชื่อเชื้อเพลิง</t>
+  </si>
+  <si>
+    <t>customerId</t>
+  </si>
+  <si>
+    <t>รหัสลูกค้า</t>
+  </si>
+  <si>
+    <t>facebookId</t>
+  </si>
+  <si>
+    <t>รหัสลูกค้าจากกรณีสมัครด้วยfacebook</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>อีเมล์ของลูกค้า(ใช้เป็นUsername)</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>พาสเวิร์ดของลูกค้า</t>
+  </si>
+  <si>
+    <t>ชื่อลูกค้า</t>
+  </si>
+  <si>
+    <t>นามสกุลลูกค้า</t>
+  </si>
+  <si>
+    <t>citizenId</t>
+  </si>
+  <si>
+    <t>รหัสบัตรประชาชนของลูกค้า</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>ที่อยู่ของลูกค้า</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birthday </t>
+  </si>
+  <si>
+    <t>วันเกิดของลูกค้า</t>
+  </si>
+  <si>
+    <t>เบอร์โทรศัพท์มือถือลูกค้า</t>
+  </si>
+  <si>
+    <t>เบอร์โทรศัพท์บ้านลูกค้า</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>เพศของลูกค้า</t>
+  </si>
+  <si>
+    <t>dateAdded</t>
+  </si>
+  <si>
+    <t>dateUpdated</t>
+  </si>
+  <si>
+    <t>วันที่แก้ไข</t>
+  </si>
+  <si>
+    <t>รหัสของอู่รถ</t>
+  </si>
+  <si>
+    <t>garageName</t>
+  </si>
+  <si>
+    <t>ชื่อของอู่รถ</t>
+  </si>
+  <si>
+    <t>garageShortName</t>
+  </si>
+  <si>
+    <t>ชื่อย่อของอู่รถ</t>
+  </si>
+  <si>
+    <t>majorId</t>
+  </si>
+  <si>
+    <t>รหัสของตำบล</t>
+  </si>
+  <si>
+    <t>รหัสของอำเภอ</t>
+  </si>
+  <si>
+    <t>รหัสของจังหวัด</t>
+  </si>
+  <si>
+    <t>majorType</t>
+  </si>
+  <si>
+    <t>thaiCompanyName</t>
+  </si>
+  <si>
+    <t>englishCompanyName</t>
+  </si>
+  <si>
+    <t>managerName</t>
+  </si>
+  <si>
+    <t>ชื่อไทยของบริษัทอู่</t>
+  </si>
+  <si>
+    <t>ชื่ออังกฤษของบริษัทอู่</t>
+  </si>
+  <si>
+    <t>ชื่อผู้บริหารอู่</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>businessType</t>
+  </si>
+  <si>
+    <t>ชนิดของธุรกิจ</t>
+  </si>
+  <si>
+    <t>ที่อยู่(บ้านเลขที่ หมู่บ้าน ถนน ฯลฯ)</t>
+  </si>
+  <si>
+    <t>เบอร์โทรศัพท์บ้าน</t>
+  </si>
+  <si>
+    <t>เบอร์โทรศัพท์มือถือ</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>เบอร์แฟกซ์</t>
+  </si>
+  <si>
+    <t>callCenter</t>
+  </si>
+  <si>
+    <t>เบอร์Call Centerของบริษัท</t>
+  </si>
+  <si>
+    <t>E-mail ของบริษัท</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>majorTypeId</t>
+  </si>
+  <si>
+    <t>รหัสของชนิดแอดมินใหญ่</t>
+  </si>
+  <si>
+    <t>รหัสของแอดมินใหญ่</t>
+  </si>
+  <si>
+    <t>Password ของแอดมินใหญ่</t>
+  </si>
+  <si>
+    <t>Username ของแอดมินใหญ่</t>
+  </si>
+  <si>
+    <t>ชื่อชนิดของแอดมินใหญ่</t>
+  </si>
+  <si>
+    <t>menuId</t>
+  </si>
+  <si>
+    <t>รหัสของแต่ละเมนู</t>
+  </si>
+  <si>
+    <t>menuName</t>
+  </si>
+  <si>
+    <t>ชื่อของเมนู</t>
+  </si>
+  <si>
+    <t>majorAllowed</t>
+  </si>
+  <si>
+    <t>minorAllowed</t>
+  </si>
+  <si>
+    <t>การอนุญาตของแอดมินใหญ่</t>
+  </si>
+  <si>
+    <t>การอนุญาตของแอดมินย่อย</t>
+  </si>
+  <si>
+    <t>minorId</t>
+  </si>
+  <si>
+    <t>รหัสของแอดมินย่อย</t>
+  </si>
+  <si>
+    <t>ชื่อจริงของแอดมินย่อย</t>
+  </si>
+  <si>
+    <t>นามสกุลของแอดมินย่อย</t>
+  </si>
+  <si>
+    <t>minorType</t>
+  </si>
+  <si>
+    <t>รหัสชนิดของแอดมินใหญ่</t>
+  </si>
+  <si>
+    <t>รหัสชนิดของแอดมินย่อย</t>
+  </si>
+  <si>
+    <t>เบอร์โทรศัพท์บ้านแอดมินย่อย</t>
+  </si>
+  <si>
+    <t>เบอร์โทรศัพท์มือถือแอดมินย่อย</t>
+  </si>
+  <si>
+    <t>minorTypeId</t>
+  </si>
+  <si>
+    <t>รหัสของชนิดแอดมินย่อย</t>
+  </si>
+  <si>
+    <t>ชื่อชนิดของแอดมินย่อย</t>
+  </si>
+  <si>
+    <t>รหัสของทุกๆเมนูที่แอดชินขนิดนั้นๆสามารถเข้าถึงได้</t>
+  </si>
+  <si>
+    <t>timeScheduleId</t>
+  </si>
+  <si>
+    <t>รหัสของแต่ละกะ</t>
+  </si>
+  <si>
+    <t>scheduleName</t>
+  </si>
+  <si>
+    <t>ชื่อของแต่ละกะ(เช้า บ่าย เย็น ฯลฯ)</t>
+  </si>
+  <si>
+    <t>timeStart</t>
+  </si>
+  <si>
+    <t>timeEnd</t>
+  </si>
+  <si>
+    <t>เวลาเริ่มต้นของกะนั้นๆ</t>
+  </si>
+  <si>
+    <t>เวลาสิ้นสุดของกะนั้นๆ</t>
+  </si>
+  <si>
+    <t>รหัสชนิดของรถ</t>
+  </si>
+  <si>
+    <t>carTypeName</t>
+  </si>
+  <si>
+    <t>ชื่อรหัสชนิดของรถ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -345,7 +594,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -354,7 +603,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -409,8 +658,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ป้อนค่า" xfId="1" builtinId="20"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,7 +672,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -497,6 +746,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -531,6 +781,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -706,21 +957,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -731,7 +982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -742,7 +993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -753,7 +1004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -761,7 +1012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -772,7 +1023,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -783,7 +1034,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -791,31 +1042,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -823,7 +1074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,7 +1085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -845,7 +1096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -861,20 +1112,130 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="1" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -885,26 +1246,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -912,6 +1273,935 @@
         <v>20</v>
       </c>
       <c r="C4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="39.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="39.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" t="s">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -919,21 +2209,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -944,7 +2234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -955,15 +2245,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -978,21 +2268,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1003,7 +2293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1014,7 +2304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1025,15 +2315,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1048,21 +2338,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1073,9 +2363,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1084,15 +2374,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1107,21 +2397,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1132,26 +2422,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1166,21 +2456,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1191,9 +2481,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1202,15 +2492,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1225,21 +2515,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1250,23 +2540,31 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1275,21 +2573,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1300,180 +2598,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1482,21 +2623,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1507,83 +2648,148 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>73</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>69</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/info/Taxi_DataDic.xlsx
+++ b/info/Taxi_DataDic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760" tabRatio="684" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="19095" windowHeight="11700" tabRatio="684" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="car" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="minorAdmin" sheetId="17" r:id="rId17"/>
     <sheet name="minorType" sheetId="18" r:id="rId18"/>
     <sheet name="timeSchedule" sheetId="19" r:id="rId19"/>
+    <sheet name="transportsection" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="187">
   <si>
     <t>carId</t>
   </si>
@@ -569,6 +570,30 @@
   </si>
   <si>
     <t>ชื่อรหัสชนิดของรถ</t>
+  </si>
+  <si>
+    <t>transportSectionId</t>
+  </si>
+  <si>
+    <t>รหัสของส่วนการเดินรถ</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>รายละเอียดการเดินรถ</t>
+  </si>
+  <si>
+    <t>รหัสของโทรศัพท์</t>
+  </si>
+  <si>
+    <t>รหัสโทรศัพท์</t>
+  </si>
+  <si>
+    <t>รหัสอู่รถ</t>
+  </si>
+  <si>
+    <t>วันที่เพิ่มข้อมูล</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1141,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1142,7 +1167,7 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1153,7 +1178,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1164,7 +1189,7 @@
         <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -2137,7 +2162,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2267,6 +2292,134 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="39.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
@@ -2626,7 +2779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/info/Taxi_DataDic.xlsx
+++ b/info/Taxi_DataDic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="19095" windowHeight="11700" tabRatio="684" firstSheet="13" activeTab="19"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="19095" windowHeight="11700" tabRatio="684" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="car" sheetId="1" r:id="rId1"/>
@@ -401,9 +401,6 @@
     <t>รหัสของจังหวัด</t>
   </si>
   <si>
-    <t>majorType</t>
-  </si>
-  <si>
     <t>thaiCompanyName</t>
   </si>
   <si>
@@ -594,6 +591,9 @@
   </si>
   <si>
     <t>วันที่เพิ่มข้อมูล</t>
+  </si>
+  <si>
+    <t>majorTypeName</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1167,7 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1555,7 +1555,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1607,42 +1607,42 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1650,15 +1650,15 @@
         <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
         <v>130</v>
-      </c>
-      <c r="B13" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1666,7 +1666,7 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1682,7 +1682,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1690,23 +1690,23 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s">
         <v>135</v>
-      </c>
-      <c r="B18" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" t="s">
         <v>137</v>
-      </c>
-      <c r="B19" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1714,7 +1714,7 @@
         <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1742,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
         <v>141</v>
-      </c>
-      <c r="B2" t="s">
-        <v>142</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1776,31 +1776,31 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1835,10 +1835,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
         <v>147</v>
-      </c>
-      <c r="B2" t="s">
-        <v>148</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1846,26 +1846,26 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
         <v>149</v>
-      </c>
-      <c r="B3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1916,10 +1916,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
         <v>155</v>
-      </c>
-      <c r="B2" t="s">
-        <v>156</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1971,10 +1971,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1985,7 +1985,7 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1993,7 +1993,7 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2001,7 +2001,7 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2017,7 +2017,7 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2025,7 +2025,7 @@
         <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2033,15 +2033,15 @@
         <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2049,7 +2049,7 @@
         <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2100,10 +2100,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
         <v>164</v>
-      </c>
-      <c r="B2" t="s">
-        <v>165</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -2122,18 +2122,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2184,10 +2184,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
         <v>168</v>
-      </c>
-      <c r="B2" t="s">
-        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -2206,26 +2206,26 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s">
         <v>170</v>
-      </c>
-      <c r="B4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2319,10 +2319,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" t="s">
         <v>179</v>
-      </c>
-      <c r="B2" t="s">
-        <v>180</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -2344,7 +2344,7 @@
         <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -2363,10 +2363,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
         <v>168</v>
-      </c>
-      <c r="B6" t="s">
-        <v>169</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -2377,7 +2377,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" t="s">
         <v>181</v>
-      </c>
-      <c r="B8" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2396,23 +2396,23 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2698,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -2706,10 +2706,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
         <v>177</v>
-      </c>
-      <c r="B3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">

--- a/info/Taxi_DataDic.xlsx
+++ b/info/Taxi_DataDic.xlsx
@@ -593,7 +593,7 @@
     <t>วันที่เพิ่มข้อมูล</t>
   </si>
   <si>
-    <t>majorTypeName</t>
+    <t>majorType</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1743,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/info/Taxi_DataDic.xlsx
+++ b/info/Taxi_DataDic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="19095" windowHeight="11700" tabRatio="684" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="19095" windowHeight="11700" tabRatio="684" firstSheet="13" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="car" sheetId="1" r:id="rId1"/>
@@ -16,24 +16,26 @@
     <sheet name="carType" sheetId="20" r:id="rId7"/>
     <sheet name="carStatus" sheetId="9" r:id="rId8"/>
     <sheet name="driverTaxi" sheetId="6" r:id="rId9"/>
-    <sheet name="mobile" sheetId="7" r:id="rId10"/>
-    <sheet name="mobileNetwork" sheetId="8" r:id="rId11"/>
-    <sheet name="customer" sheetId="12" r:id="rId12"/>
-    <sheet name="garageList" sheetId="13" r:id="rId13"/>
-    <sheet name="majorAdmin" sheetId="14" r:id="rId14"/>
-    <sheet name="majorType" sheetId="15" r:id="rId15"/>
-    <sheet name="menuList" sheetId="16" r:id="rId16"/>
-    <sheet name="minorAdmin" sheetId="17" r:id="rId17"/>
-    <sheet name="minorType" sheetId="18" r:id="rId18"/>
-    <sheet name="timeSchedule" sheetId="19" r:id="rId19"/>
-    <sheet name="transportsection" sheetId="21" r:id="rId20"/>
+    <sheet name="driverhistory" sheetId="23" r:id="rId10"/>
+    <sheet name="mobile" sheetId="7" r:id="rId11"/>
+    <sheet name="mobileNetwork" sheetId="8" r:id="rId12"/>
+    <sheet name="customer" sheetId="12" r:id="rId13"/>
+    <sheet name="garageList" sheetId="13" r:id="rId14"/>
+    <sheet name="majorAdmin" sheetId="14" r:id="rId15"/>
+    <sheet name="majorType" sheetId="15" r:id="rId16"/>
+    <sheet name="menuList" sheetId="16" r:id="rId17"/>
+    <sheet name="minorAdmin" sheetId="17" r:id="rId18"/>
+    <sheet name="minorType" sheetId="18" r:id="rId19"/>
+    <sheet name="timeSchedule" sheetId="19" r:id="rId20"/>
+    <sheet name="transportsection" sheetId="21" r:id="rId21"/>
+    <sheet name="mapping" sheetId="22" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="223">
   <si>
     <t>carId</t>
   </si>
@@ -122,9 +124,6 @@
     <t>Foreign key</t>
   </si>
   <si>
-    <t>ชื่อยี่ห้อรถ</t>
-  </si>
-  <si>
     <t>รหัสยี่ห้อรถ</t>
   </si>
   <si>
@@ -281,9 +280,6 @@
     <t>carColorId</t>
   </si>
   <si>
-    <t>carBannerName</t>
-  </si>
-  <si>
     <t>carModelName</t>
   </si>
   <si>
@@ -377,12 +373,6 @@
     <t>รหัสของอู่รถ</t>
   </si>
   <si>
-    <t>garageName</t>
-  </si>
-  <si>
-    <t>ชื่อของอู่รถ</t>
-  </si>
-  <si>
     <t>garageShortName</t>
   </si>
   <si>
@@ -488,9 +478,6 @@
     <t>majorAllowed</t>
   </si>
   <si>
-    <t>minorAllowed</t>
-  </si>
-  <si>
     <t>การอนุญาตของแอดมินใหญ่</t>
   </si>
   <si>
@@ -594,6 +581,129 @@
   </si>
   <si>
     <t>majorType</t>
+  </si>
+  <si>
+    <t>garagePassword</t>
+  </si>
+  <si>
+    <t>พาสเวิดของอู่รถ</t>
+  </si>
+  <si>
+    <t>mapId</t>
+  </si>
+  <si>
+    <t>รหัสของการแมพ</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longtitude</t>
+  </si>
+  <si>
+    <t>historyId</t>
+  </si>
+  <si>
+    <t>startPlace</t>
+  </si>
+  <si>
+    <t>finishPlace</t>
+  </si>
+  <si>
+    <t>driveTime</t>
+  </si>
+  <si>
+    <t>customerPunctual</t>
+  </si>
+  <si>
+    <t>customerCollaborate</t>
+  </si>
+  <si>
+    <t>driverPunctual</t>
+  </si>
+  <si>
+    <t>driverCarLook</t>
+  </si>
+  <si>
+    <t>driverCourtesy</t>
+  </si>
+  <si>
+    <t>driverDrivingSkill</t>
+  </si>
+  <si>
+    <t>driverComment</t>
+  </si>
+  <si>
+    <t>customerComment</t>
+  </si>
+  <si>
+    <t>รหัสของประวัติ</t>
+  </si>
+  <si>
+    <t>รหัสของผู้ขับ</t>
+  </si>
+  <si>
+    <t>รหัสของลูกค้า</t>
+  </si>
+  <si>
+    <t>ต้นทาง</t>
+  </si>
+  <si>
+    <t>ปลายทาง</t>
+  </si>
+  <si>
+    <t>เวลาที่เดินรถ</t>
+  </si>
+  <si>
+    <t>คะแนนการให้ความร่วมมือที่ผู้ขับให้ลูกค้า</t>
+  </si>
+  <si>
+    <t>คะแนนความตรงต่อเวลาที่ผู้ขับให้ลูกค้า</t>
+  </si>
+  <si>
+    <t>คะแนนความตรงต่อเวลาที่ลูกค้าให้ผู้ขับ</t>
+  </si>
+  <si>
+    <t>คะแนนสภาพรถแท๊กซี่ที่ลูกค้าให้ผู้ขับ</t>
+  </si>
+  <si>
+    <t>คะแนนมารยาทของผู้ขับที่ลูกค้าให้</t>
+  </si>
+  <si>
+    <t>คะแนนเรื่องการขับขี่ที่ลูกค้าให้ผู้ขับ</t>
+  </si>
+  <si>
+    <t>คอมเม้นท์ผู้ขับจากลูกค้า</t>
+  </si>
+  <si>
+    <t>คอมเม้นท์ลูกค้าจากผู้ขับ</t>
+  </si>
+  <si>
+    <t>supervisorAllowed</t>
+  </si>
+  <si>
+    <t>carBannerNameThai</t>
+  </si>
+  <si>
+    <t>ชื่อยี่ห้อรถภาษาไทย</t>
+  </si>
+  <si>
+    <t>carBannerNameEng</t>
+  </si>
+  <si>
+    <t>ชื่อยี่ห้อรถภาษาอังกฤษ</t>
+  </si>
+  <si>
+    <t>simId</t>
+  </si>
+  <si>
+    <t>รหัสซิมของลูกค้า</t>
+  </si>
+  <si>
+    <t>imei</t>
+  </si>
+  <si>
+    <t>เลขIMEIของเครื่องโทรศัพท์ลูกค้า</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1179,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1077,7 +1187,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1085,7 +1195,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1138,10 +1248,162 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1164,10 +1426,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1178,7 +1440,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1186,43 +1448,45 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1235,10 +1499,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
         <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1273,10 +1537,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1284,10 +1548,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1304,12 +1568,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1332,10 +1596,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1343,107 +1607,123 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1452,12 +1732,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1478,11 +1758,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1490,23 +1770,23 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1514,23 +1794,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1551,55 +1832,55 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>118</v>
+      <c r="A2" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>76</v>
+      <c r="A4" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>77</v>
+      <c r="A5" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>78</v>
+      <c r="A6" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1607,119 +1888,119 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1727,23 +2008,24 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1764,11 +2046,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>140</v>
+      <c r="A2" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1776,31 +2058,31 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1808,12 +2090,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1834,11 +2116,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>146</v>
+      <c r="A2" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1846,31 +2128,31 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -1878,10 +2160,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1889,12 +2171,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1915,66 +2197,66 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>154</v>
+      <c r="A2" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>76</v>
+      <c r="A4" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>77</v>
+      <c r="A5" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>78</v>
+      <c r="A6" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>163</v>
+      <c r="A7" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1982,79 +2264,79 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -2062,10 +2344,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2073,12 +2355,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2099,22 +2381,22 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>163</v>
+      <c r="A2" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -2122,23 +2404,23 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -2146,86 +2428,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="39.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2235,10 +2441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2272,20 +2478,28 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2294,10 +2508,86 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="39.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2318,40 +2608,40 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>178</v>
+      <c r="A2" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>33</v>
+      <c r="A3" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>59</v>
+      <c r="A4" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
@@ -2362,22 +2652,22 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>167</v>
+      <c r="A6" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -2385,10 +2675,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2396,23 +2686,91 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="39.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2462,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -2470,10 +2828,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2518,7 +2876,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -2529,10 +2887,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2577,10 +2935,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -2588,10 +2946,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
         <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2636,7 +2994,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -2647,10 +3005,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2698,7 +3056,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -2706,10 +3064,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2764,10 +3122,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
         <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2803,10 +3161,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -2825,59 +3183,59 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -2885,10 +3243,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -2896,10 +3254,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -2907,42 +3265,42 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/info/Taxi_DataDic.xlsx
+++ b/info/Taxi_DataDic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="19095" windowHeight="11700" tabRatio="684" firstSheet="13" activeTab="21"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="19095" windowHeight="11700" tabRatio="684"/>
   </bookViews>
   <sheets>
     <sheet name="car" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="224">
   <si>
     <t>carId</t>
   </si>
@@ -520,9 +520,6 @@
     <t>ชื่อชนิดของแอดมินย่อย</t>
   </si>
   <si>
-    <t>รหัสของทุกๆเมนูที่แอดชินขนิดนั้นๆสามารถเข้าถึงได้</t>
-  </si>
-  <si>
     <t>timeScheduleId</t>
   </si>
   <si>
@@ -704,6 +701,12 @@
   </si>
   <si>
     <t>เลขIMEIของเครื่องโทรศัพท์ลูกค้า</t>
+  </si>
+  <si>
+    <t>รหัสของทุกๆเมนูที่แอดมินขนิดนั้นๆสามารถเข้าถึงได้</t>
+  </si>
+  <si>
+    <t>รหัสจังหวัดของรถ</t>
   </si>
 </sst>
 </file>
@@ -1093,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1149,10 +1152,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1160,85 +1163,96 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1274,10 +1288,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1288,7 +1302,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1299,7 +1313,7 @@
         <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1307,90 +1321,90 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1443,7 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1688,18 +1702,18 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" t="s">
         <v>219</v>
-      </c>
-      <c r="B13" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" t="s">
         <v>221</v>
-      </c>
-      <c r="B14" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1770,10 +1784,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
         <v>182</v>
-      </c>
-      <c r="B3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2058,7 +2072,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
         <v>141</v>
@@ -2136,7 +2150,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
         <v>147</v>
@@ -2360,7 +2374,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2415,7 +2429,7 @@
         <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2478,18 +2492,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
         <v>215</v>
-      </c>
-      <c r="B3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" t="s">
         <v>217</v>
-      </c>
-      <c r="B4" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2533,10 +2547,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" t="s">
-        <v>163</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -2555,26 +2569,26 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s">
         <v>164</v>
-      </c>
-      <c r="B4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2609,10 +2623,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
         <v>173</v>
-      </c>
-      <c r="B2" t="s">
-        <v>174</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -2634,7 +2648,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -2653,10 +2667,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" t="s">
         <v>162</v>
-      </c>
-      <c r="B6" t="s">
-        <v>163</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -2667,7 +2681,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -2675,10 +2689,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" t="s">
         <v>175</v>
-      </c>
-      <c r="B8" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2686,7 +2700,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2714,7 +2728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2737,10 +2751,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
         <v>184</v>
-      </c>
-      <c r="B2" t="s">
-        <v>185</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -2751,7 +2765,7 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -2759,18 +2773,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3056,7 +3070,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -3064,10 +3078,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
         <v>171</v>
-      </c>
-      <c r="B3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">

--- a/info/Taxi_DataDic.xlsx
+++ b/info/Taxi_DataDic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="19095" windowHeight="11700" tabRatio="684"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="19095" windowHeight="11700" tabRatio="684" firstSheet="14" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="car" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,23 @@
     <sheet name="mobile" sheetId="7" r:id="rId11"/>
     <sheet name="mobileNetwork" sheetId="8" r:id="rId12"/>
     <sheet name="customer" sheetId="12" r:id="rId13"/>
-    <sheet name="garageList" sheetId="13" r:id="rId14"/>
-    <sheet name="majorAdmin" sheetId="14" r:id="rId15"/>
-    <sheet name="majorType" sheetId="15" r:id="rId16"/>
-    <sheet name="menuList" sheetId="16" r:id="rId17"/>
-    <sheet name="minorAdmin" sheetId="17" r:id="rId18"/>
-    <sheet name="minorType" sheetId="18" r:id="rId19"/>
-    <sheet name="timeSchedule" sheetId="19" r:id="rId20"/>
-    <sheet name="transportsection" sheetId="21" r:id="rId21"/>
-    <sheet name="mapping" sheetId="22" r:id="rId22"/>
+    <sheet name="customermap" sheetId="24" r:id="rId14"/>
+    <sheet name="garageList" sheetId="13" r:id="rId15"/>
+    <sheet name="majorAdmin" sheetId="14" r:id="rId16"/>
+    <sheet name="majorType" sheetId="15" r:id="rId17"/>
+    <sheet name="menuList" sheetId="16" r:id="rId18"/>
+    <sheet name="minorAdmin" sheetId="17" r:id="rId19"/>
+    <sheet name="minorType" sheetId="18" r:id="rId20"/>
+    <sheet name="timeSchedule" sheetId="19" r:id="rId21"/>
+    <sheet name="transportsection" sheetId="21" r:id="rId22"/>
+    <sheet name="mobilemap" sheetId="22" r:id="rId23"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="228">
   <si>
     <t>carId</t>
   </si>
@@ -586,9 +587,6 @@
     <t>พาสเวิดของอู่รถ</t>
   </si>
   <si>
-    <t>mapId</t>
-  </si>
-  <si>
     <t>รหัสของการแมพ</t>
   </si>
   <si>
@@ -707,6 +705,21 @@
   </si>
   <si>
     <t>รหัสจังหวัดของรถ</t>
+  </si>
+  <si>
+    <t>customerMapId</t>
+  </si>
+  <si>
+    <t>รหัสของการแมพส่วนลูกค้า</t>
+  </si>
+  <si>
+    <t>latitudeCustomer</t>
+  </si>
+  <si>
+    <t>longitudeCustomer</t>
+  </si>
+  <si>
+    <t>mobileMapId</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1155,7 +1168,7 @@
         <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1288,10 +1301,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1302,7 +1315,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1313,7 +1326,7 @@
         <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1321,90 +1334,90 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1702,18 +1715,18 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" t="s">
         <v>218</v>
-      </c>
-      <c r="B13" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" t="s">
         <v>220</v>
-      </c>
-      <c r="B14" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1747,6 +1760,74 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="39.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1820,7 +1901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -2034,7 +2115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2104,7 +2185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2150,7 +2231,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
         <v>147</v>
@@ -2185,7 +2266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -2361,90 +2442,6 @@
         <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="39.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2492,18 +2489,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
         <v>214</v>
-      </c>
-      <c r="B3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" t="s">
         <v>216</v>
-      </c>
-      <c r="B4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2521,6 +2518,90 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="39.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2596,7 +2677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -2724,11 +2805,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2751,10 +2832,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" t="s">
         <v>183</v>
-      </c>
-      <c r="B2" t="s">
-        <v>184</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -2773,7 +2854,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
         <v>164</v>
@@ -2781,7 +2862,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
         <v>167</v>

--- a/info/Taxi_DataDic.xlsx
+++ b/info/Taxi_DataDic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="19095" windowHeight="11700" tabRatio="684" firstSheet="14" activeTab="22"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="19095" windowHeight="11700" tabRatio="684" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="car" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="230">
   <si>
     <t>carId</t>
   </si>
@@ -720,6 +720,12 @@
   </si>
   <si>
     <t>mobileMapId</t>
+  </si>
+  <si>
+    <t>dateMapping</t>
+  </si>
+  <si>
+    <t>วันเวลาที่ทำการเก็บข้อมูล</t>
   </si>
 </sst>
 </file>
@@ -1761,10 +1767,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1820,6 +1826,14 @@
       </c>
       <c r="B5" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2807,10 +2821,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2866,6 +2880,14 @@
       </c>
       <c r="B5" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
